--- a/Fuel-Calc.xlsx
+++ b/Fuel-Calc.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Home\GitHub\SharedDocs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -15,7 +20,7 @@
     <definedName name="FualStat">Table1[]</definedName>
     <definedName name="Table11">Table1[]</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;₪&quot;\ * #,##0_ ;_ &quot;₪&quot;\ * \-#,##0_ ;_ &quot;₪&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -283,7 +288,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -332,10 +337,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$59</c:f>
+              <c:f>Sheet1!$B$5:$B$60</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -500,16 +505,19 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>43469</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$59</c:f>
+              <c:f>Sheet1!$H$5:$H$60</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -674,11 +682,19 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>14.435028248587571</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.533834586466165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-87B1-4CBF-95DD-F3D9D3AA9E7F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -688,7 +704,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="221688192"/>
         <c:axId val="221689728"/>
@@ -781,8 +796,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J60" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="B4:J59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J61" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="B4:J60"/>
   <tableColumns count="9">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -1057,7 +1072,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1065,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J60"/>
+  <dimension ref="B3:J61"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2460,17 +2475,43 @@
       <c r="J59" s="11"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+      <c r="B60" s="5">
+        <v>43485</v>
+      </c>
+      <c r="C60">
+        <v>36499</v>
+      </c>
+      <c r="D60">
+        <v>39.9</v>
+      </c>
+      <c r="E60">
+        <v>60.4</v>
+      </c>
+      <c r="F60" s="11">
+        <v>241</v>
+      </c>
+      <c r="G60" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>19.95</v>
+      </c>
+      <c r="H60" s="9">
+        <f>(C60-C59)/D60</f>
+        <v>13.533834586466165</v>
+      </c>
+      <c r="J60" s="11"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>16</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F61" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>13099.36</v>
-      </c>
-      <c r="G60"/>
-      <c r="H60" s="9">
+        <v>13340.36</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>14.035350660205342</v>
+        <v>14.026395016031428</v>
       </c>
     </row>
   </sheetData>

--- a/Fuel-Calc.xlsx
+++ b/Fuel-Calc.xlsx
@@ -337,10 +337,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$60</c:f>
+              <c:f>Sheet1!$B$5:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -508,16 +508,19 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>43485</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$60</c:f>
+              <c:f>Sheet1!$H$5:$H$61</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -685,6 +688,9 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>13.533834586466165</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14.589743589743589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -796,8 +802,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J61" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="B4:J60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J62" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="B4:J61"/>
   <tableColumns count="9">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -860,7 +866,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -895,7 +901,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1080,9 +1086,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J61"/>
+  <dimension ref="B3:J62"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E16" workbookViewId="0">
       <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
@@ -2501,17 +2507,43 @@
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+      <c r="B61" s="5">
+        <v>43499</v>
+      </c>
+      <c r="C61">
+        <v>37068</v>
+      </c>
+      <c r="D61">
+        <v>39</v>
+      </c>
+      <c r="E61">
+        <v>6.12</v>
+      </c>
+      <c r="F61" s="11">
+        <v>238.7</v>
+      </c>
+      <c r="G61" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>19.5</v>
+      </c>
+      <c r="H61" s="9">
+        <f>(C61-C60)/D61</f>
+        <v>14.589743589743589</v>
+      </c>
+      <c r="J61" s="11"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F62" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>13340.36</v>
-      </c>
-      <c r="G61"/>
-      <c r="H61" s="9">
+        <v>13579.060000000001</v>
+      </c>
+      <c r="G62"/>
+      <c r="H62" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>14.026395016031428</v>
+        <v>14.036278324342167</v>
       </c>
     </row>
   </sheetData>

--- a/Fuel-Calc.xlsx
+++ b/Fuel-Calc.xlsx
@@ -337,10 +337,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$61</c:f>
+              <c:f>Sheet1!$B$5:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -511,16 +511,19 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>43499</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$61</c:f>
+              <c:f>Sheet1!$H$5:$H$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -691,6 +694,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>14.589743589743589</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>15.835411471321695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -802,8 +808,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J62" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="B4:J61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J63" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="B4:J62"/>
   <tableColumns count="9">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -1086,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J62"/>
+  <dimension ref="B3:J63"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,17 +2539,43 @@
       <c r="J61" s="11"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+      <c r="B62" s="5">
+        <v>43514</v>
+      </c>
+      <c r="C62">
+        <v>37703</v>
+      </c>
+      <c r="D62">
+        <v>40.1</v>
+      </c>
+      <c r="E62">
+        <v>6.12</v>
+      </c>
+      <c r="F62" s="11">
+        <v>245.5</v>
+      </c>
+      <c r="G62" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>20.05</v>
+      </c>
+      <c r="H62" s="9">
+        <f>(C62-C61)/D62</f>
+        <v>15.835411471321695</v>
+      </c>
+      <c r="J62" s="11"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>16</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F63" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>13579.060000000001</v>
-      </c>
-      <c r="G62"/>
-      <c r="H62" s="9">
+        <v>13824.560000000001</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>14.036278324342167</v>
+        <v>14.067297861359053</v>
       </c>
     </row>
   </sheetData>

--- a/Fuel-Calc.xlsx
+++ b/Fuel-Calc.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>תאריך</t>
   </si>
@@ -337,10 +337,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$62</c:f>
+              <c:f>Sheet1!$B$5:$B$63</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -514,16 +514,19 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>43514</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$62</c:f>
+              <c:f>Sheet1!$H$5:$H$63</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -697,6 +700,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>15.835411471321695</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.241573033707864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,8 +814,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J63" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="B4:J62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J64" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="B4:J63"/>
   <tableColumns count="9">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -1092,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J63"/>
+  <dimension ref="B3:J64"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2565,17 +2571,46 @@
       <c r="J62" s="11"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+      <c r="B63" s="5">
+        <v>43523</v>
+      </c>
+      <c r="C63">
+        <v>38210</v>
+      </c>
+      <c r="D63">
+        <v>35.6</v>
+      </c>
+      <c r="E63">
+        <v>6.12</v>
+      </c>
+      <c r="F63" s="11">
+        <v>217.76</v>
+      </c>
+      <c r="G63" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>17.8</v>
+      </c>
+      <c r="H63" s="9">
+        <f>(C63-C62)/D63</f>
+        <v>14.241573033707864</v>
+      </c>
+      <c r="I63" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63" s="11"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F64" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>13824.560000000001</v>
-      </c>
-      <c r="G63"/>
-      <c r="H63" s="9">
+        <v>14042.320000000002</v>
+      </c>
+      <c r="G64"/>
+      <c r="H64" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>14.067297861359053</v>
+        <v>14.070251677839542</v>
       </c>
     </row>
   </sheetData>

--- a/Fuel-Calc.xlsx
+++ b/Fuel-Calc.xlsx
@@ -337,10 +337,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$63</c:f>
+              <c:f>Sheet1!$B$5:$B$64</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -517,16 +517,19 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>43523</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$63</c:f>
+              <c:f>Sheet1!$H$5:$H$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -703,6 +706,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>14.241573033707864</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>13.870192307692307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -814,8 +820,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J64" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="B4:J63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J65" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="B4:J64"/>
   <tableColumns count="9">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -1098,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J64"/>
+  <dimension ref="B3:J65"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2600,17 +2606,43 @@
       <c r="J63" s="11"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+      <c r="B64" s="5">
+        <v>43537</v>
+      </c>
+      <c r="C64">
+        <v>38787</v>
+      </c>
+      <c r="D64">
+        <v>41.6</v>
+      </c>
+      <c r="E64">
+        <v>6.33</v>
+      </c>
+      <c r="F64" s="11">
+        <v>263.22000000000003</v>
+      </c>
+      <c r="G64" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>20.8</v>
+      </c>
+      <c r="H64" s="9">
+        <f>(C64-C63)/D64</f>
+        <v>13.870192307692307</v>
+      </c>
+      <c r="J64" s="11"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F65" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>14042.320000000002</v>
-      </c>
-      <c r="G64"/>
-      <c r="H64" s="9">
+        <v>14305.54</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>14.070251677839542</v>
+        <v>14.066917355003755</v>
       </c>
     </row>
   </sheetData>

--- a/Fuel-Calc.xlsx
+++ b/Fuel-Calc.xlsx
@@ -337,10 +337,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$64</c:f>
+              <c:f>Sheet1!$B$5:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -520,16 +520,19 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>43537</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$64</c:f>
+              <c:f>Sheet1!$H$5:$H$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -709,6 +712,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>13.870192307692307</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14.243243243243244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -820,8 +826,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J65" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="B4:J64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J66" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="B4:J65"/>
   <tableColumns count="9">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -1104,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J65"/>
+  <dimension ref="B3:J66"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2493,7 +2499,7 @@
         <v>17.7</v>
       </c>
       <c r="H59" s="9">
-        <f>(C59-C58)/D59</f>
+        <f t="shared" ref="H59:H64" si="6">(C59-C58)/D59</f>
         <v>14.435028248587571</v>
       </c>
       <c r="J59" s="11"/>
@@ -2519,7 +2525,7 @@
         <v>19.95</v>
       </c>
       <c r="H60" s="9">
-        <f>(C60-C59)/D60</f>
+        <f t="shared" si="6"/>
         <v>13.533834586466165</v>
       </c>
       <c r="J60" s="11"/>
@@ -2545,7 +2551,7 @@
         <v>19.5</v>
       </c>
       <c r="H61" s="9">
-        <f>(C61-C60)/D61</f>
+        <f t="shared" si="6"/>
         <v>14.589743589743589</v>
       </c>
       <c r="J61" s="11"/>
@@ -2571,7 +2577,7 @@
         <v>20.05</v>
       </c>
       <c r="H62" s="9">
-        <f>(C62-C61)/D62</f>
+        <f t="shared" si="6"/>
         <v>15.835411471321695</v>
       </c>
       <c r="J62" s="11"/>
@@ -2597,7 +2603,7 @@
         <v>17.8</v>
       </c>
       <c r="H63" s="9">
-        <f>(C63-C62)/D63</f>
+        <f t="shared" si="6"/>
         <v>14.241573033707864</v>
       </c>
       <c r="I63" t="s">
@@ -2626,23 +2632,49 @@
         <v>20.8</v>
       </c>
       <c r="H64" s="9">
-        <f>(C64-C63)/D64</f>
+        <f t="shared" si="6"/>
         <v>13.870192307692307</v>
       </c>
       <c r="J64" s="11"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="5">
+        <v>43551</v>
+      </c>
+      <c r="C65">
+        <v>39314</v>
+      </c>
+      <c r="D65">
+        <v>37</v>
+      </c>
+      <c r="E65">
+        <v>6.33</v>
+      </c>
+      <c r="F65" s="11">
+        <v>234.2</v>
+      </c>
+      <c r="G65" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>18.5</v>
+      </c>
+      <c r="H65" s="9">
+        <f>(C65-C64)/D65</f>
+        <v>14.243243243243244</v>
+      </c>
+      <c r="J65" s="11"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F66" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>14305.54</v>
-      </c>
-      <c r="G65"/>
-      <c r="H65" s="9">
+        <v>14539.740000000002</v>
+      </c>
+      <c r="G66"/>
+      <c r="H66" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>14.066917355003755</v>
+        <v>14.069807943335549</v>
       </c>
     </row>
   </sheetData>

--- a/Fuel-Calc.xlsx
+++ b/Fuel-Calc.xlsx
@@ -337,10 +337,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$65</c:f>
+              <c:f>Sheet1!$B$5:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -523,16 +523,19 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>43551</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$65</c:f>
+              <c:f>Sheet1!$H$5:$H$66</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -715,6 +718,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>14.243243243243244</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>14.600550964187329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -826,8 +832,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J66" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="B4:J65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J67" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="B4:J66"/>
   <tableColumns count="9">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -1110,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J66"/>
+  <dimension ref="B3:J67"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2664,17 +2670,43 @@
       <c r="J65" s="11"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+      <c r="B66" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C66">
+        <v>39844</v>
+      </c>
+      <c r="D66">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E66">
+        <v>6.53</v>
+      </c>
+      <c r="F66" s="11">
+        <v>237</v>
+      </c>
+      <c r="G66" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>18.149999999999999</v>
+      </c>
+      <c r="H66" s="9">
+        <f>(C66-C65)/D66</f>
+        <v>14.600550964187329</v>
+      </c>
+      <c r="J66" s="11"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F67" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>14539.740000000002</v>
-      </c>
-      <c r="G66"/>
-      <c r="H66" s="9">
+        <v>14776.740000000002</v>
+      </c>
+      <c r="G67"/>
+      <c r="H67" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>14.069807943335549</v>
+        <v>14.078368314639608</v>
       </c>
     </row>
   </sheetData>

--- a/Fuel-Calc.xlsx
+++ b/Fuel-Calc.xlsx
@@ -337,10 +337,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$66</c:f>
+              <c:f>Sheet1!$B$5:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -526,16 +526,19 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>43563</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$66</c:f>
+              <c:f>Sheet1!$H$5:$H$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -721,6 +724,9 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>14.600550964187329</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14.696261682242991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -832,8 +838,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J67" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="B4:J66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J68" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="B4:J67"/>
   <tableColumns count="9">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -1116,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J67"/>
+  <dimension ref="B3:J68"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2696,17 +2702,43 @@
       <c r="J66" s="11"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+      <c r="B67" s="5">
+        <v>43578</v>
+      </c>
+      <c r="C67">
+        <v>40473</v>
+      </c>
+      <c r="D67">
+        <v>42.8</v>
+      </c>
+      <c r="E67">
+        <v>6.53</v>
+      </c>
+      <c r="F67" s="11">
+        <v>280</v>
+      </c>
+      <c r="G67" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>21.4</v>
+      </c>
+      <c r="H67" s="9">
+        <f>(C67-C66)/D67</f>
+        <v>14.696261682242991</v>
+      </c>
+      <c r="J67" s="11"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F68" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>14776.740000000002</v>
-      </c>
-      <c r="G67"/>
-      <c r="H67" s="9">
+        <v>15056.740000000002</v>
+      </c>
+      <c r="G68"/>
+      <c r="H68" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>14.078368314639608</v>
+        <v>14.088176145871408</v>
       </c>
     </row>
   </sheetData>

--- a/Fuel-Calc.xlsx
+++ b/Fuel-Calc.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>תאריך</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>שיחזור, לפי נתוני האתר.</t>
+  </si>
+  <si>
+    <t>תדלוק חלקי עקב תקלה במשאבה</t>
   </si>
 </sst>
 </file>
@@ -337,10 +340,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$67</c:f>
+              <c:f>Sheet1!$B$5:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -529,16 +532,19 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>43578</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$67</c:f>
+              <c:f>Sheet1!$H$5:$H$69</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -787,7 +793,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -838,8 +843,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J68" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="B4:J67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J70" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="B4:J69"/>
   <tableColumns count="9">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -1122,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J68"/>
+  <dimension ref="B3:J70"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2728,15 +2733,52 @@
       <c r="J67" s="11"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+      <c r="B68" s="5">
+        <v>43591</v>
+      </c>
+      <c r="D68">
+        <v>28</v>
+      </c>
+      <c r="E68">
+        <v>6.72</v>
+      </c>
+      <c r="F68" s="11">
+        <v>188</v>
+      </c>
+      <c r="G68" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>14</v>
+      </c>
+      <c r="H68" s="9"/>
+      <c r="I68" t="s">
+        <v>27</v>
+      </c>
+      <c r="J68" s="11"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>41500</v>
+      </c>
+      <c r="G69" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="9"/>
+      <c r="I69" t="s">
+        <v>23</v>
+      </c>
+      <c r="J69" s="11"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F70" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>15056.740000000002</v>
-      </c>
-      <c r="G68"/>
-      <c r="H68" s="9">
+        <v>15244.740000000002</v>
+      </c>
+      <c r="G70"/>
+      <c r="H70" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
         <v>14.088176145871408</v>
       </c>

--- a/Fuel-Calc.xlsx
+++ b/Fuel-Calc.xlsx
@@ -340,10 +340,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$69</c:f>
+              <c:f>Sheet1!$B$5:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -535,16 +535,19 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>43591</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$69</c:f>
+              <c:f>Sheet1!$H$5:$H$70</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -733,6 +736,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>14.696261682242991</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14.860759493670885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -793,6 +799,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -843,8 +850,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J70" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="B4:J69"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J71" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="B4:J70"/>
   <tableColumns count="9">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -1127,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J70"/>
+  <dimension ref="B3:J71"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2770,17 +2777,43 @@
       <c r="J69" s="11"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+      <c r="B70" s="5">
+        <v>43612</v>
+      </c>
+      <c r="C70">
+        <v>42087</v>
+      </c>
+      <c r="D70">
+        <v>39.5</v>
+      </c>
+      <c r="E70">
+        <v>6.72</v>
+      </c>
+      <c r="F70" s="11">
+        <v>265</v>
+      </c>
+      <c r="G70" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>19.75</v>
+      </c>
+      <c r="H70" s="9">
+        <f>(C70-C69)/D70</f>
+        <v>14.860759493670885</v>
+      </c>
+      <c r="J70" s="11"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>16</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>15244.740000000002</v>
-      </c>
-      <c r="G70"/>
-      <c r="H70" s="9">
+        <v>15509.740000000002</v>
+      </c>
+      <c r="G71"/>
+      <c r="H71" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>14.088176145871408</v>
+        <v>14.100247760680775</v>
       </c>
     </row>
   </sheetData>

--- a/Fuel-Calc.xlsx
+++ b/Fuel-Calc.xlsx
@@ -340,10 +340,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$70</c:f>
+              <c:f>Sheet1!$B$5:$B$73</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -538,16 +538,25 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>43612</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43628</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43640</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$70</c:f>
+              <c:f>Sheet1!$H$5:$H$73</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -739,6 +748,15 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>14.860759493670885</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14.255874673629243</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.451219512195124</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14.447058823529412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -799,7 +817,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -850,8 +867,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J71" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="B4:J70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J74" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="B4:J73"/>
   <tableColumns count="9">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -1134,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J71"/>
+  <dimension ref="B3:J74"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2803,17 +2820,95 @@
       <c r="J70" s="11"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+      <c r="B71" s="5">
+        <v>43628</v>
+      </c>
+      <c r="C71">
+        <v>42633</v>
+      </c>
+      <c r="D71">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="E71">
+        <v>6.58</v>
+      </c>
+      <c r="F71" s="11">
+        <v>252</v>
+      </c>
+      <c r="G71" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>19.149999999999999</v>
+      </c>
+      <c r="H71" s="9">
+        <f>(C71-C70)/D71</f>
+        <v>14.255874673629243</v>
+      </c>
+      <c r="J71" s="11"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="5">
+        <v>43640</v>
+      </c>
+      <c r="C72">
+        <v>43107</v>
+      </c>
+      <c r="D72">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E72">
+        <v>6.58</v>
+      </c>
+      <c r="F72" s="11">
+        <v>216</v>
+      </c>
+      <c r="G72" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H72" s="9">
+        <f>(C72-C71)/D72</f>
+        <v>14.451219512195124</v>
+      </c>
+      <c r="J72" s="11"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="5">
+        <v>43649</v>
+      </c>
+      <c r="C73">
+        <v>43721</v>
+      </c>
+      <c r="D73">
+        <v>42.5</v>
+      </c>
+      <c r="E73">
+        <v>6.46</v>
+      </c>
+      <c r="F73" s="11">
+        <v>274.39999999999998</v>
+      </c>
+      <c r="G73" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>21.25</v>
+      </c>
+      <c r="H73" s="9">
+        <f>(C73-C72)/D73</f>
+        <v>14.447058823529412</v>
+      </c>
+      <c r="J73" s="11"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F74" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>15509.740000000002</v>
-      </c>
-      <c r="G71"/>
-      <c r="H71" s="9">
+        <v>16252.140000000001</v>
+      </c>
+      <c r="G74"/>
+      <c r="H74" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>14.100247760680775</v>
+        <v>14.112985219297364</v>
       </c>
     </row>
   </sheetData>

--- a/Fuel-Calc.xlsx
+++ b/Fuel-Calc.xlsx
@@ -27,6 +27,41 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Rafi Neeman</author>
+  </authors>
+  <commentList>
+    <comment ref="C68" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="177"/>
+          </rPr>
+          <t>Rafi Neeman:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="177"/>
+          </rPr>
+          <t xml:space="preserve">
+פיקטיבי רק לצורךהממוצע
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -128,7 +163,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="&quot;₪&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +195,19 @@
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="177"/>
     </font>
   </fonts>
   <fills count="4">
@@ -340,10 +388,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$73</c:f>
+              <c:f>Sheet1!$B$5:$B$74</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -536,6 +584,9 @@
                 <c:pt idx="63">
                   <c:v>43591</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>43597</c:v>
+                </c:pt>
                 <c:pt idx="65">
                   <c:v>43612</c:v>
                 </c:pt>
@@ -547,16 +598,19 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>43649</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$73</c:f>
+              <c:f>Sheet1!$H$5:$H$74</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -746,6 +800,12 @@
                 <c:pt idx="62">
                   <c:v>14.696261682242991</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>15.25</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14.767413241447205</c:v>
+                </c:pt>
                 <c:pt idx="65">
                   <c:v>14.860759493670885</c:v>
                 </c:pt>
@@ -757,6 +817,9 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>14.447058823529412</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>15.884476534296029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -817,6 +880,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -867,8 +931,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J74" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="B4:J73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J75" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="B4:J74"/>
   <tableColumns count="9">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -1150,11 +1214,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J75"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2760,6 +2824,9 @@
       <c r="B68" s="5">
         <v>43591</v>
       </c>
+      <c r="C68">
+        <v>40900</v>
+      </c>
       <c r="D68">
         <v>28</v>
       </c>
@@ -2767,27 +2834,45 @@
         <v>6.72</v>
       </c>
       <c r="F68" s="11">
-        <v>188</v>
+        <v>188.19</v>
       </c>
       <c r="G68" s="13">
         <f>(Table1[[#This Row],[כמות]]*0.5)</f>
         <v>14</v>
       </c>
-      <c r="H68" s="9"/>
+      <c r="H68" s="9">
+        <f t="shared" ref="H68:H69" si="7">(C68-C67)/D68</f>
+        <v>15.25</v>
+      </c>
       <c r="I68" t="s">
         <v>27</v>
       </c>
       <c r="J68" s="11"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="5">
+        <v>43597</v>
+      </c>
       <c r="C69">
         <v>41500</v>
       </c>
+      <c r="D69">
+        <v>40.630000000000003</v>
+      </c>
+      <c r="E69">
+        <v>6.72</v>
+      </c>
+      <c r="F69" s="11">
+        <v>273.02999999999997</v>
+      </c>
       <c r="G69" s="13">
         <f>(Table1[[#This Row],[כמות]]*0.5)</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="9"/>
+        <v>20.315000000000001</v>
+      </c>
+      <c r="H69" s="9">
+        <f t="shared" si="7"/>
+        <v>14.767413241447205</v>
+      </c>
       <c r="I69" t="s">
         <v>23</v>
       </c>
@@ -2833,7 +2918,7 @@
         <v>6.58</v>
       </c>
       <c r="F71" s="11">
-        <v>252</v>
+        <v>252.22</v>
       </c>
       <c r="G71" s="13">
         <f>(Table1[[#This Row],[כמות]]*0.5)</f>
@@ -2859,7 +2944,7 @@
         <v>6.58</v>
       </c>
       <c r="F72" s="11">
-        <v>216</v>
+        <v>216.13</v>
       </c>
       <c r="G72" s="13">
         <f>(Table1[[#This Row],[כמות]]*0.5)</f>
@@ -2898,25 +2983,52 @@
       <c r="J73" s="11"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+      <c r="B74" s="5">
+        <v>43669</v>
+      </c>
+      <c r="C74">
+        <v>44337</v>
+      </c>
+      <c r="D74">
+        <v>38.78</v>
+      </c>
+      <c r="E74">
+        <v>6.46</v>
+      </c>
+      <c r="F74" s="11">
+        <v>250.53</v>
+      </c>
+      <c r="G74" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>19.39</v>
+      </c>
+      <c r="H74" s="9">
+        <f>(C74-C73)/D74</f>
+        <v>15.884476534296029</v>
+      </c>
+      <c r="J74" s="11"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>16</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>16252.140000000001</v>
-      </c>
-      <c r="G74"/>
-      <c r="H74" s="9">
+        <v>16776.240000000002</v>
+      </c>
+      <c r="G75"/>
+      <c r="H75" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>14.112985219297364</v>
+        <v>14.16388427812381</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Fuel-Calc.xlsx
+++ b/Fuel-Calc.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>תאריך</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>תדלוק חלקי עקב תקלה במשאבה</t>
+  </si>
+  <si>
+    <t>לאחר תדלוק זה הושם תוסף דלק</t>
+  </si>
+  <si>
+    <t>ללא קבלה</t>
   </si>
 </sst>
 </file>
@@ -388,10 +394,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$74</c:f>
+              <c:f>Sheet1!$B$5:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -601,16 +607,19 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>43669</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$74</c:f>
+              <c:f>Sheet1!$H$5:$H$75</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -820,6 +829,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>15.884476534296029</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15.314285714285715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -880,7 +892,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -931,8 +942,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J75" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="B4:J74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J76" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="B4:J75"/>
   <tableColumns count="9">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -1215,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J75"/>
+  <dimension ref="B3:J76"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3006,20 +3017,52 @@
         <f>(C74-C73)/D74</f>
         <v>15.884476534296029</v>
       </c>
+      <c r="I74" t="s">
+        <v>28</v>
+      </c>
       <c r="J74" s="11"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+      <c r="B75" s="5">
+        <v>43684</v>
+      </c>
+      <c r="C75">
+        <v>44873</v>
+      </c>
+      <c r="D75">
+        <v>35</v>
+      </c>
+      <c r="E75">
+        <v>6.47</v>
+      </c>
+      <c r="F75" s="11">
+        <v>226.44</v>
+      </c>
+      <c r="G75" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>17.5</v>
+      </c>
+      <c r="H75" s="9">
+        <f>(C75-C74)/D75</f>
+        <v>15.314285714285715</v>
+      </c>
+      <c r="I75" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" s="11"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F76" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>16776.240000000002</v>
-      </c>
-      <c r="G75"/>
-      <c r="H75" s="9">
+        <v>17002.68</v>
+      </c>
+      <c r="G76"/>
+      <c r="H76" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>14.16388427812381</v>
+        <v>14.180087115252851</v>
       </c>
     </row>
   </sheetData>

--- a/Fuel-Calc.xlsx
+++ b/Fuel-Calc.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>תאריך</t>
   </si>
@@ -156,6 +156,12 @@
   <si>
     <t>ללא קבלה</t>
   </si>
+  <si>
+    <t>דלק" בדרך למודיעין , בצירוף תדלוק קודם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">דלק" בדרך למודיעין </t>
+  </si>
 </sst>
 </file>
 
@@ -169,7 +175,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="&quot;₪&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +221,14 @@
       <name val="Tahoma"/>
       <charset val="177"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -253,7 +267,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,6 +292,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4"/>
@@ -394,10 +409,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$75</c:f>
+              <c:f>Sheet1!$B$5:$B$78</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -610,16 +625,25 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>43684</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43699</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43706</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$75</c:f>
+              <c:f>Sheet1!$H$5:$H$78</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -832,6 +856,15 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>15.314285714285715</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14.105504587155963</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14.438398756315587</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14.632814632814632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -942,8 +975,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J76" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="B4:J75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J79" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="B4:J78"/>
   <tableColumns count="9">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -1226,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J76"/>
+  <dimension ref="B3:J79"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2910,7 +2943,7 @@
         <v>19.75</v>
       </c>
       <c r="H70" s="9">
-        <f>(C70-C69)/D70</f>
+        <f t="shared" ref="H70:H75" si="8">(C70-C69)/D70</f>
         <v>14.860759493670885</v>
       </c>
       <c r="J70" s="11"/>
@@ -2936,7 +2969,7 @@
         <v>19.149999999999999</v>
       </c>
       <c r="H71" s="9">
-        <f>(C71-C70)/D71</f>
+        <f t="shared" si="8"/>
         <v>14.255874673629243</v>
       </c>
       <c r="J71" s="11"/>
@@ -2962,7 +2995,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="H72" s="9">
-        <f>(C72-C71)/D72</f>
+        <f t="shared" si="8"/>
         <v>14.451219512195124</v>
       </c>
       <c r="J72" s="11"/>
@@ -2988,7 +3021,7 @@
         <v>21.25</v>
       </c>
       <c r="H73" s="9">
-        <f>(C73-C72)/D73</f>
+        <f t="shared" si="8"/>
         <v>14.447058823529412</v>
       </c>
       <c r="J73" s="11"/>
@@ -3014,7 +3047,7 @@
         <v>19.39</v>
       </c>
       <c r="H74" s="9">
-        <f>(C74-C73)/D74</f>
+        <f t="shared" si="8"/>
         <v>15.884476534296029</v>
       </c>
       <c r="I74" t="s">
@@ -3043,7 +3076,7 @@
         <v>17.5</v>
       </c>
       <c r="H75" s="9">
-        <f>(C75-C74)/D75</f>
+        <f t="shared" si="8"/>
         <v>15.314285714285715</v>
       </c>
       <c r="I75" t="s">
@@ -3052,17 +3085,101 @@
       <c r="J75" s="11"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+      <c r="B76" s="5">
+        <v>43699</v>
+      </c>
+      <c r="C76">
+        <v>45488</v>
+      </c>
+      <c r="D76">
+        <v>43.6</v>
+      </c>
+      <c r="E76">
+        <v>6.47</v>
+      </c>
+      <c r="F76" s="11">
+        <v>282.2</v>
+      </c>
+      <c r="G76" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>21.8</v>
+      </c>
+      <c r="H76" s="9">
+        <f>(C76-C75)/D76</f>
+        <v>14.105504587155963</v>
+      </c>
+      <c r="J76" s="11"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="5">
+        <v>43706</v>
+      </c>
+      <c r="C77">
+        <v>46231</v>
+      </c>
+      <c r="D77">
+        <f>(43.73+7.73)</f>
+        <v>51.459999999999994</v>
+      </c>
+      <c r="E77">
+        <v>6.26</v>
+      </c>
+      <c r="F77" s="11">
+        <f>(273.7+50)</f>
+        <v>323.7</v>
+      </c>
+      <c r="G77" s="13">
+        <v>0</v>
+      </c>
+      <c r="H77" s="9">
+        <f>(C77-C76)/D77</f>
+        <v>14.438398756315587</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J77" s="11"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="5">
+        <v>43719</v>
+      </c>
+      <c r="C78">
+        <v>46767</v>
+      </c>
+      <c r="D78">
+        <v>36.630000000000003</v>
+      </c>
+      <c r="E78">
+        <v>6.07</v>
+      </c>
+      <c r="F78" s="11">
+        <v>222.36</v>
+      </c>
+      <c r="G78" s="13">
+        <v>0</v>
+      </c>
+      <c r="H78" s="9">
+        <f>(C78-C77)/D78</f>
+        <v>14.632814632814632</v>
+      </c>
+      <c r="I78" t="s">
+        <v>31</v>
+      </c>
+      <c r="J78" s="11"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>16</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F79" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>17002.68</v>
-      </c>
-      <c r="G76"/>
-      <c r="H76" s="9">
+        <v>17830.940000000002</v>
+      </c>
+      <c r="G79"/>
+      <c r="H79" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>14.180087115252851</v>
+        <v>14.188687880530249</v>
       </c>
     </row>
   </sheetData>

--- a/Fuel-Calc.xlsx
+++ b/Fuel-Calc.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>תאריך</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t xml:space="preserve">דלק" בדרך למודיעין </t>
+  </si>
+  <si>
+    <t>דלק" בדרך למודיעין  ללא קבלה</t>
+  </si>
+  <si>
+    <t>תחנה אדיר גז במתתיהו</t>
+  </si>
+  <si>
+    <t>דלק בדרך למודיעין</t>
   </si>
 </sst>
 </file>
@@ -409,10 +418,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$78</c:f>
+              <c:f>Sheet1!$B$5:$B$84</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -634,16 +643,34 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>43719</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43740</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43763</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43782</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43794</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43808</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$78</c:f>
+              <c:f>Sheet1!$H$5:$H$84</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -865,6 +892,24 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>14.632814632814632</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>13.825665859564166</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>13.890274314214464</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>14.395061728395062</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15.779202676331197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.246895755125612</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14.160133048229982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -975,8 +1020,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J79" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="B4:J78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J85" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="B4:J84"/>
   <tableColumns count="9">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -1259,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J79"/>
+  <dimension ref="B3:J85"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3105,7 +3150,7 @@
         <v>21.8</v>
       </c>
       <c r="H76" s="9">
-        <f>(C76-C75)/D76</f>
+        <f t="shared" ref="H76:H81" si="9">(C76-C75)/D76</f>
         <v>14.105504587155963</v>
       </c>
       <c r="J76" s="11"/>
@@ -3132,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="9">
-        <f>(C77-C76)/D77</f>
+        <f t="shared" si="9"/>
         <v>14.438398756315587</v>
       </c>
       <c r="I77" s="14" t="s">
@@ -3160,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="9">
-        <f>(C78-C77)/D78</f>
+        <f t="shared" si="9"/>
         <v>14.632814632814632</v>
       </c>
       <c r="I78" t="s">
@@ -3169,17 +3214,174 @@
       <c r="J78" s="11"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+      <c r="B79" s="5">
+        <v>43740</v>
+      </c>
+      <c r="C79">
+        <v>47338</v>
+      </c>
+      <c r="D79">
+        <v>41.3</v>
+      </c>
+      <c r="E79">
+        <v>6.18</v>
+      </c>
+      <c r="F79" s="11">
+        <v>255.2</v>
+      </c>
+      <c r="G79" s="13">
+        <v>0</v>
+      </c>
+      <c r="H79" s="9">
+        <f t="shared" si="9"/>
+        <v>13.825665859564166</v>
+      </c>
+      <c r="I79" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" s="11"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="5">
+        <v>43763</v>
+      </c>
+      <c r="C80">
+        <v>47895</v>
+      </c>
+      <c r="D80">
+        <v>40.1</v>
+      </c>
+      <c r="E80">
+        <v>6.18</v>
+      </c>
+      <c r="F80" s="11">
+        <v>253</v>
+      </c>
+      <c r="G80" s="13">
+        <v>0</v>
+      </c>
+      <c r="H80" s="9">
+        <f t="shared" si="9"/>
+        <v>13.890274314214464</v>
+      </c>
+      <c r="I80" t="s">
+        <v>33</v>
+      </c>
+      <c r="J80" s="11"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="5">
+        <v>43782</v>
+      </c>
+      <c r="C81">
+        <v>48478</v>
+      </c>
+      <c r="D81">
+        <v>40.5</v>
+      </c>
+      <c r="E81">
+        <v>6.12</v>
+      </c>
+      <c r="G81" s="13"/>
+      <c r="H81" s="9">
+        <f t="shared" si="9"/>
+        <v>14.395061728395062</v>
+      </c>
+      <c r="I81" t="s">
+        <v>32</v>
+      </c>
+      <c r="J81" s="11"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="5">
+        <v>43794</v>
+      </c>
+      <c r="C82">
+        <v>49044</v>
+      </c>
+      <c r="D82">
+        <v>35.869999999999997</v>
+      </c>
+      <c r="E82">
+        <v>6.12</v>
+      </c>
+      <c r="F82" s="11">
+        <v>219.49</v>
+      </c>
+      <c r="G82" s="13"/>
+      <c r="H82" s="9">
+        <f>(C82-C81)/D82</f>
+        <v>15.779202676331197</v>
+      </c>
+      <c r="I82" t="s">
+        <v>34</v>
+      </c>
+      <c r="J82" s="11"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="5">
+        <v>43808</v>
+      </c>
+      <c r="C83">
+        <v>49572</v>
+      </c>
+      <c r="D83">
+        <v>34.630000000000003</v>
+      </c>
+      <c r="E83">
+        <v>6.16</v>
+      </c>
+      <c r="F83" s="11">
+        <v>213.35</v>
+      </c>
+      <c r="G83" s="13"/>
+      <c r="H83" s="9">
+        <f>(C83-C82)/D83</f>
+        <v>15.246895755125612</v>
+      </c>
+      <c r="I83" t="s">
+        <v>34</v>
+      </c>
+      <c r="J83" s="11"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="5">
+        <v>43822</v>
+      </c>
+      <c r="C84">
+        <v>50168</v>
+      </c>
+      <c r="D84">
+        <v>42.09</v>
+      </c>
+      <c r="E84">
+        <v>6.16</v>
+      </c>
+      <c r="F84" s="11">
+        <v>253.11</v>
+      </c>
+      <c r="G84" s="13"/>
+      <c r="H84" s="9">
+        <f>(C84-C83)/D84</f>
+        <v>14.160133048229982</v>
+      </c>
+      <c r="I84" t="s">
+        <v>32</v>
+      </c>
+      <c r="J84" s="11"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F85" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>17830.940000000002</v>
-      </c>
-      <c r="G79"/>
-      <c r="H79" s="9">
+        <v>19025.090000000004</v>
+      </c>
+      <c r="G85"/>
+      <c r="H85" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>14.188687880530249</v>
+        <v>14.215751706763736</v>
       </c>
     </row>
   </sheetData>

--- a/Fuel-Calc.xlsx
+++ b/Fuel-Calc.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>תאריך</t>
   </si>
@@ -418,10 +418,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$84</c:f>
+              <c:f>Sheet1!$B$5:$B$87</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -661,16 +661,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>43822</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43835</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43853</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43870</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$84</c:f>
+              <c:f>Sheet1!$H$5:$H$87</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -910,6 +919,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>14.160133048229982</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>14.217877094972069</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>13.441541973116916</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>14.543080939947782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1020,8 +1038,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J85" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="B4:J84"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J88" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="B4:J87"/>
   <tableColumns count="9">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -1304,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J85"/>
+  <dimension ref="B3:J88"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3371,17 +3389,95 @@
       <c r="J84" s="11"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+      <c r="B85" s="5">
+        <v>43835</v>
+      </c>
+      <c r="C85">
+        <v>50677</v>
+      </c>
+      <c r="D85">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E85">
+        <v>6.14</v>
+      </c>
+      <c r="F85" s="11">
+        <v>219.9</v>
+      </c>
+      <c r="G85" s="13"/>
+      <c r="H85" s="9">
+        <f>(C85-C84)/D85</f>
+        <v>14.217877094972069</v>
+      </c>
+      <c r="I85" t="s">
+        <v>32</v>
+      </c>
+      <c r="J85" s="11"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="5">
+        <v>43853</v>
+      </c>
+      <c r="C86">
+        <v>51207</v>
+      </c>
+      <c r="D86">
+        <v>39.43</v>
+      </c>
+      <c r="E86">
+        <v>6.14</v>
+      </c>
+      <c r="F86" s="11">
+        <v>242.13</v>
+      </c>
+      <c r="G86" s="13"/>
+      <c r="H86" s="9">
+        <f>(C86-C85)/D86</f>
+        <v>13.441541973116916</v>
+      </c>
+      <c r="I86" t="s">
+        <v>32</v>
+      </c>
+      <c r="J86" s="11"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="5">
+        <v>43870</v>
+      </c>
+      <c r="C87">
+        <v>51764</v>
+      </c>
+      <c r="D87">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="E87">
+        <v>5.99</v>
+      </c>
+      <c r="F87" s="11">
+        <v>229.75</v>
+      </c>
+      <c r="G87" s="13"/>
+      <c r="H87" s="9">
+        <f>(C87-C86)/D87</f>
+        <v>14.543080939947782</v>
+      </c>
+      <c r="I87" t="s">
+        <v>32</v>
+      </c>
+      <c r="J87" s="11"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>16</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F88" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>19025.090000000004</v>
-      </c>
-      <c r="G85"/>
-      <c r="H85" s="9">
+        <v>19716.870000000006</v>
+      </c>
+      <c r="G88"/>
+      <c r="H88" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>14.215751706763736</v>
+        <v>14.210393211435369</v>
       </c>
     </row>
   </sheetData>

--- a/Fuel-Calc.xlsx
+++ b/Fuel-Calc.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>תאריך</t>
   </si>
@@ -418,10 +418,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$87</c:f>
+              <c:f>Sheet1!$B$5:$B$89</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -670,16 +670,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$87</c:f>
+              <c:f>Sheet1!$H$5:$H$89</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -928,6 +934,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>14.543080939947782</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>14.246947082767978</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>14.472511144130758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1038,8 +1050,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J88" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="B4:J87"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J90" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="B4:J89"/>
   <tableColumns count="9">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -1322,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J88"/>
+  <dimension ref="B3:J90"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+      <selection activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3328,7 +3340,7 @@
       </c>
       <c r="G82" s="13"/>
       <c r="H82" s="9">
-        <f>(C82-C81)/D82</f>
+        <f t="shared" ref="H82:H87" si="10">(C82-C81)/D82</f>
         <v>15.779202676331197</v>
       </c>
       <c r="I82" t="s">
@@ -3354,7 +3366,7 @@
       </c>
       <c r="G83" s="13"/>
       <c r="H83" s="9">
-        <f>(C83-C82)/D83</f>
+        <f t="shared" si="10"/>
         <v>15.246895755125612</v>
       </c>
       <c r="I83" t="s">
@@ -3380,7 +3392,7 @@
       </c>
       <c r="G84" s="13"/>
       <c r="H84" s="9">
-        <f>(C84-C83)/D84</f>
+        <f t="shared" si="10"/>
         <v>14.160133048229982</v>
       </c>
       <c r="I84" t="s">
@@ -3406,7 +3418,7 @@
       </c>
       <c r="G85" s="13"/>
       <c r="H85" s="9">
-        <f>(C85-C84)/D85</f>
+        <f t="shared" si="10"/>
         <v>14.217877094972069</v>
       </c>
       <c r="I85" t="s">
@@ -3432,7 +3444,7 @@
       </c>
       <c r="G86" s="13"/>
       <c r="H86" s="9">
-        <f>(C86-C85)/D86</f>
+        <f t="shared" si="10"/>
         <v>13.441541973116916</v>
       </c>
       <c r="I86" t="s">
@@ -3458,7 +3470,7 @@
       </c>
       <c r="G87" s="13"/>
       <c r="H87" s="9">
-        <f>(C87-C86)/D87</f>
+        <f t="shared" si="10"/>
         <v>14.543080939947782</v>
       </c>
       <c r="I87" t="s">
@@ -3467,17 +3479,69 @@
       <c r="J87" s="11"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+      <c r="B88" s="5">
+        <v>43885</v>
+      </c>
+      <c r="C88">
+        <v>52289</v>
+      </c>
+      <c r="D88">
+        <v>36.85</v>
+      </c>
+      <c r="E88">
+        <v>5.99</v>
+      </c>
+      <c r="F88" s="11">
+        <v>220.8</v>
+      </c>
+      <c r="G88" s="13"/>
+      <c r="H88" s="9">
+        <f>(C88-C87)/D88</f>
+        <v>14.246947082767978</v>
+      </c>
+      <c r="I88" t="s">
+        <v>32</v>
+      </c>
+      <c r="J88" s="11"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="5">
+        <v>43898</v>
+      </c>
+      <c r="C89">
+        <v>52776</v>
+      </c>
+      <c r="D89">
+        <v>33.65</v>
+      </c>
+      <c r="E89">
+        <v>5.92</v>
+      </c>
+      <c r="F89" s="11">
+        <v>199.2</v>
+      </c>
+      <c r="G89" s="13"/>
+      <c r="H89" s="9">
+        <f>(C89-C88)/D89</f>
+        <v>14.472511144130758</v>
+      </c>
+      <c r="I89" t="s">
+        <v>31</v>
+      </c>
+      <c r="J89" s="11"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>16</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F90" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>19716.870000000006</v>
-      </c>
-      <c r="G88"/>
-      <c r="H88" s="9">
+        <v>20136.870000000006</v>
+      </c>
+      <c r="G90"/>
+      <c r="H90" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>14.210393211435369</v>
+        <v>14.213906997365109</v>
       </c>
     </row>
   </sheetData>

--- a/Fuel-Calc.xlsx
+++ b/Fuel-Calc.xlsx
@@ -57,6 +57,30 @@
           <t xml:space="preserve">
 פיקטיבי רק לצורךהממוצע
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H90" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="177"/>
+          </rPr>
+          <t>Rafi Neeman:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="177"/>
+          </rPr>
+          <t xml:space="preserve">
+מזויף. רק שיתאים לממוצע</t>
         </r>
       </text>
     </comment>
@@ -418,10 +442,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$89</c:f>
+              <c:f>Sheet1!$B$5:$B$95</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -676,16 +700,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$89</c:f>
+              <c:f>Sheet1!$H$5:$H$95</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -940,6 +982,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>14.472511144130758</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17.120304844855742</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>15.084745762711865</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>13.193863319386331</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>18.388834476003915</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>16.492002206287921</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>16.644040184632093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1050,8 +1110,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J90" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="B4:J89"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J96" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="B4:J95"/>
   <tableColumns count="9">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -1334,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J90"/>
+  <dimension ref="B3:J96"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I90" sqref="I90"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3531,17 +3591,161 @@
       <c r="J89" s="11"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+      <c r="B90" s="5">
+        <v>43907</v>
+      </c>
+      <c r="C90">
+        <v>53405</v>
+      </c>
+      <c r="D90">
+        <v>36.74</v>
+      </c>
+      <c r="E90">
+        <v>5.92</v>
+      </c>
+      <c r="F90" s="11">
+        <v>217.48</v>
+      </c>
+      <c r="G90" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>18.37</v>
+      </c>
+      <c r="H90" s="9">
+        <f>(C90-C89)/D90</f>
+        <v>17.120304844855742</v>
+      </c>
+      <c r="J90" s="11"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="5">
+        <v>43922</v>
+      </c>
+      <c r="C91">
+        <v>53939</v>
+      </c>
+      <c r="D91">
+        <v>35.4</v>
+      </c>
+      <c r="E91">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F91" s="11">
+        <v>173</v>
+      </c>
+      <c r="G91" s="13">
+        <f>(Table1[[#This Row],[כמות]]*0.5)</f>
+        <v>17.7</v>
+      </c>
+      <c r="H91" s="9">
+        <f t="shared" ref="H91:H93" si="11">(C91-C90)/D91</f>
+        <v>15.084745762711865</v>
+      </c>
+      <c r="J91" s="11"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="5">
+        <v>43949</v>
+      </c>
+      <c r="C92">
+        <v>54412</v>
+      </c>
+      <c r="D92">
+        <v>35.85</v>
+      </c>
+      <c r="E92">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F92" s="11">
+        <v>175.33</v>
+      </c>
+      <c r="G92" s="13"/>
+      <c r="H92" s="9">
+        <f t="shared" si="11"/>
+        <v>13.193863319386331</v>
+      </c>
+      <c r="J92" s="11"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="5">
+        <v>43969</v>
+      </c>
+      <c r="C93">
+        <v>55163</v>
+      </c>
+      <c r="D93">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="E93">
+        <v>4.79</v>
+      </c>
+      <c r="F93" s="11">
+        <v>195.62</v>
+      </c>
+      <c r="G93" s="13"/>
+      <c r="H93" s="9">
+        <f t="shared" si="11"/>
+        <v>18.388834476003915</v>
+      </c>
+      <c r="J93" s="11"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="5">
+        <v>43984</v>
+      </c>
+      <c r="C94">
+        <v>55761</v>
+      </c>
+      <c r="D94">
+        <v>36.26</v>
+      </c>
+      <c r="E94">
+        <v>5.21</v>
+      </c>
+      <c r="F94" s="11">
+        <v>188.9</v>
+      </c>
+      <c r="G94" s="13"/>
+      <c r="H94" s="9">
+        <f>(C94-C93)/D94</f>
+        <v>16.492002206287921</v>
+      </c>
+      <c r="J94" s="11"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="5">
+        <v>43999</v>
+      </c>
+      <c r="C95">
+        <v>56374</v>
+      </c>
+      <c r="D95">
+        <v>36.83</v>
+      </c>
+      <c r="E95">
+        <v>5.21</v>
+      </c>
+      <c r="F95" s="11">
+        <v>191.87</v>
+      </c>
+      <c r="G95" s="13"/>
+      <c r="H95" s="9">
+        <f>(C95-C94)/D95</f>
+        <v>16.644040184632093</v>
+      </c>
+      <c r="J95" s="11"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
         <v>16</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F96" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>20136.870000000006</v>
-      </c>
-      <c r="G90"/>
-      <c r="H90" s="9">
+        <v>21279.070000000007</v>
+      </c>
+      <c r="G96"/>
+      <c r="H96" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>14.213906997365109</v>
+        <v>14.341822918350685</v>
       </c>
     </row>
   </sheetData>

--- a/Fuel-Calc.xlsx
+++ b/Fuel-Calc.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>תאריך</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>דלק בדרך למודיעין</t>
+  </si>
+  <si>
+    <t>דור אלון נתבג</t>
   </si>
 </sst>
 </file>
@@ -442,10 +445,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$95</c:f>
+              <c:f>Sheet1!$B$5:$B$96</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -718,16 +721,19 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$95</c:f>
+              <c:f>Sheet1!$H$5:$H$96</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -1000,6 +1006,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>16.644040184632093</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>14.312529328953543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,8 +1119,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J96" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="B4:J95"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J97" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="B4:J96"/>
   <tableColumns count="9">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -1394,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J96"/>
+  <dimension ref="B3:J97"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I95" sqref="I95"/>
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3735,17 +3744,43 @@
       <c r="J95" s="11"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+      <c r="B96" s="5">
+        <v>44018</v>
+      </c>
+      <c r="C96">
+        <v>56984</v>
+      </c>
+      <c r="D96">
+        <v>42.62</v>
+      </c>
+      <c r="E96">
+        <v>5.44</v>
+      </c>
+      <c r="F96" s="11">
+        <v>231.84</v>
+      </c>
+      <c r="G96" s="13"/>
+      <c r="H96" s="9">
+        <f>(C96-C95)/D96</f>
+        <v>14.312529328953543</v>
+      </c>
+      <c r="I96" t="s">
+        <v>35</v>
+      </c>
+      <c r="J96" s="11"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
         <v>16</v>
       </c>
-      <c r="F96" s="11">
+      <c r="F97" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>21279.070000000007</v>
-      </c>
-      <c r="G96"/>
-      <c r="H96" s="9">
+        <v>21510.910000000007</v>
+      </c>
+      <c r="G97"/>
+      <c r="H97" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>14.341822918350685</v>
+        <v>14.341504509770282</v>
       </c>
     </row>
   </sheetData>

--- a/Fuel-Calc.xlsx
+++ b/Fuel-Calc.xlsx
@@ -81,6 +81,30 @@
           </rPr>
           <t xml:space="preserve">
 מזויף. רק שיתאים לממוצע</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C97" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="177"/>
+          </rPr>
+          <t>Rafi Neeman:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="177"/>
+          </rPr>
+          <t xml:space="preserve">
+הערכה</t>
         </r>
       </text>
     </comment>
@@ -445,10 +469,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$96</c:f>
+              <c:f>Sheet1!$B$5:$B$99</c:f>
               <c:numCache>
                 <c:formatCode>[$-1010000]d/m/yyyy;@</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -724,16 +748,25 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$96</c:f>
+              <c:f>Sheet1!$H$5:$H$99</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>15.35</c:v>
                 </c:pt>
@@ -1009,6 +1042,15 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>14.312529328953543</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>16.774353876739561</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>15.069939297967801</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>15.2224222165081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1069,6 +1111,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1119,8 +1162,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J97" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="B4:J96"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:J100" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="B4:J99"/>
   <tableColumns count="9">
     <tableColumn id="1" name="תאריך" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" name="ק&quot;מ"/>
@@ -1403,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J97"/>
+  <dimension ref="B3:J100"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3769,18 +3812,87 @@
       </c>
       <c r="J96" s="11"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="5">
+        <v>44029</v>
+      </c>
+      <c r="C97">
+        <v>57659</v>
+      </c>
+      <c r="D97">
+        <v>40.24</v>
+      </c>
+      <c r="E97">
+        <v>5.44</v>
+      </c>
+      <c r="F97" s="11">
+        <v>218.93</v>
+      </c>
+      <c r="G97" s="13"/>
+      <c r="H97" s="9">
+        <f>(C97-C96)/D97</f>
+        <v>16.774353876739561</v>
+      </c>
+      <c r="J97" s="11"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="5">
+        <v>44047</v>
+      </c>
+      <c r="C98">
+        <v>58230</v>
+      </c>
+      <c r="D98">
+        <v>37.89</v>
+      </c>
+      <c r="E98">
+        <v>5.45</v>
+      </c>
+      <c r="F98" s="11">
+        <v>206.5</v>
+      </c>
+      <c r="G98" s="13"/>
+      <c r="H98" s="9">
+        <f>(C98-C97)/D98</f>
+        <v>15.069939297967801</v>
+      </c>
+      <c r="J98" s="11"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="5">
+        <v>44066</v>
+      </c>
+      <c r="C99">
+        <v>58822</v>
+      </c>
+      <c r="D99">
+        <v>38.89</v>
+      </c>
+      <c r="E99">
+        <v>5.45</v>
+      </c>
+      <c r="F99" s="11">
+        <v>211.96</v>
+      </c>
+      <c r="G99" s="13"/>
+      <c r="H99" s="9">
+        <f>(C99-C98)/D99</f>
+        <v>15.2224222165081</v>
+      </c>
+      <c r="J99" s="11"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>16</v>
       </c>
-      <c r="F97" s="11">
+      <c r="F100" s="11">
         <f>SUBTOTAL(109,Table1[מחיר כולל])</f>
-        <v>21510.910000000007</v>
-      </c>
-      <c r="G97"/>
-      <c r="H97" s="9">
+        <v>22148.300000000007</v>
+      </c>
+      <c r="G100"/>
+      <c r="H100" s="9">
         <f>SUBTOTAL(101,Table1[ק"מ לליטר (מחושב)])</f>
-        <v>14.341504509770282</v>
+        <v>14.384054003053485</v>
       </c>
     </row>
   </sheetData>
